--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>365982.7428334089</v>
+        <v>457896.9318625612</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9321424.560661638</v>
+        <v>8666268.959347758</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8366664.17278847</v>
+        <v>8612872.176815499</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -677,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>36.74532229879934</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>86.27197698880639</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>116.8405921356976</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>129.3420634549345</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>85.79332318808653</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.00402729331205</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>21.41405905276474</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -899,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>187.5255871663199</v>
+        <v>123.0172992876057</v>
       </c>
       <c r="W5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>116.8405921356975</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,16 +989,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>131.1189721502593</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>100.9927579854984</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1090,13 +1092,13 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>7.935701265474393</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>13.47835778729034</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>104.8814412733149</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1266,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1312,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>38.11163636040592</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1382,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.5582063813129</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>170.5016145896895</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>243.2391485592454</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1458,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G12" t="n">
-        <v>81.08201083912647</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>192.0892145641079</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1531,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8428862394539</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3113116019144</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>125.7837895511153</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.5582063813129</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>216.1937569295498</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863195</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>39.75871363895445</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21.28670958487417</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
-        <v>192.0892145641079</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.809572818776</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1749,7 +1751,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>21.48108218515134</v>
+        <v>146.8428862394544</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,19 +1849,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>74.55681854025008</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>243.2391485592454</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824772</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>115.0138334144191</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>88.86896262945042</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2090,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>173.2319944898047</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>42.78734947751009</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>60.61873658331222</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>263.6539091741073</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>126.5388824951702</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>229.7965692041383</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2457,7 +2459,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2479,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>186.2925683059789</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>131.5522128412688</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>229.7965692041376</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>64.51496360666877</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>19.52918235370601</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>30.2830096778784</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>17.48565126025484</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>81.77200357366344</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>244.245500736745</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3038,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3193,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>157.083471584492</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>20.95866062610916</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>289.1825630108448</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041376</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3393,7 +3395,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3436,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>150.301327678917</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3478,7 +3480,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>36.80019004113345</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3503,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>394.2071006265892</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>229.7965692041379</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3633,7 +3635,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U39" t="n">
         <v>225.7871683969286</v>
@@ -3664,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>73.01324780167951</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>88.58584547962764</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,16 +3745,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3797,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>209.4175447002692</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3876,7 +3878,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>121.4856996582646</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>20.95866062610966</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3983,13 +3985,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>240.9724417356401</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4073,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.5968754185119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
         <v>18.81721868247742</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.38664856090047</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4189,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>127.3385186497853</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.00204697330559</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330559</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330559</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330559</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330559</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>18.13634036116618</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>53.10181779183023</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>141.3070323458396</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>271.1217663066259</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>407.6508467588563</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>523.2361246735306</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020265</v>
+        <v>587.3844843548346</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652797</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262254</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433435</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="T2" t="n">
-        <v>322.4426321268587</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="U2" t="n">
-        <v>204.4218319897904</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="V2" t="n">
-        <v>15.00204697330559</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="W2" t="n">
-        <v>15.00204697330559</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="X2" t="n">
-        <v>15.00204697330559</v>
+        <v>351.9116580139103</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.00204697330559</v>
+        <v>203.5822427727904</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>495.2270892330031</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C3" t="n">
-        <v>320.7740599518761</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D3" t="n">
-        <v>320.7740599518761</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024216</v>
+        <v>51.36582106616815</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>150.9598290415666</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>286.538206975247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>392.911462660324</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>511.1831359408227</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017063</v>
+        <v>586.7735145200479</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652797</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652797</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652797</v>
+        <v>456.7359354104562</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652797</v>
+        <v>308.4065201693364</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652797</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652797</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652797</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="X3" t="n">
-        <v>663.4424262530711</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="Y3" t="n">
-        <v>663.4424262530711</v>
+        <v>160.0771049282165</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.45491281910415</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="C4" t="n">
-        <v>49.45491281910415</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="D4" t="n">
-        <v>49.45491281910415</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="E4" t="n">
-        <v>49.45491281910415</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="F4" t="n">
-        <v>49.45491281910415</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="G4" t="n">
-        <v>49.45491281910415</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="H4" t="n">
-        <v>49.45491281910415</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="I4" t="n">
-        <v>49.45491281910415</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404147</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>14.1259580354324</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>19.89179156510269</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910415</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910415</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910415</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910415</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910415</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910415</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910415</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910415</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910415</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910415</v>
+        <v>33.37805236665703</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.00204697330559</v>
+        <v>314.7951708434059</v>
       </c>
       <c r="C5" t="n">
-        <v>15.00204697330559</v>
+        <v>314.7951708434059</v>
       </c>
       <c r="D5" t="n">
-        <v>15.00204697330559</v>
+        <v>166.465755602286</v>
       </c>
       <c r="E5" t="n">
-        <v>15.00204697330559</v>
+        <v>166.465755602286</v>
       </c>
       <c r="F5" t="n">
-        <v>15.00204697330559</v>
+        <v>166.465755602286</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330559</v>
+        <v>166.465755602286</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330559</v>
+        <v>18.13634036116618</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330559</v>
+        <v>18.13634036116618</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058939</v>
+        <v>53.10181779183017</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079184</v>
+        <v>141.3070323458395</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644754</v>
+        <v>271.1217663066255</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123828</v>
+        <v>407.6508467588559</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985582</v>
+        <v>523.2361246735304</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020263</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R5" t="n">
-        <v>672.2420264262252</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S5" t="n">
-        <v>511.8624171433432</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T5" t="n">
-        <v>511.8624171433432</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="U5" t="n">
-        <v>511.8624171433432</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="V5" t="n">
-        <v>322.4426321268585</v>
+        <v>463.1245860845257</v>
       </c>
       <c r="W5" t="n">
-        <v>133.0228471103738</v>
+        <v>463.1245860845257</v>
       </c>
       <c r="X5" t="n">
-        <v>15.00204697330559</v>
+        <v>314.7951708434059</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.00204697330559</v>
+        <v>314.7951708434059</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>385.5051357559041</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="C6" t="n">
-        <v>385.5051357559041</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="D6" t="n">
-        <v>236.5707260946528</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="E6" t="n">
-        <v>236.5707260946528</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="F6" t="n">
-        <v>90.0361681215378</v>
+        <v>144.1910958994798</v>
       </c>
       <c r="G6" t="n">
-        <v>90.0361681215378</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H6" t="n">
-        <v>90.0361681215378</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I6" t="n">
-        <v>30.53661367296053</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024213</v>
+        <v>12.36141687342361</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772649</v>
+        <v>111.9554248488221</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140244</v>
+        <v>247.5338027825024</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546601</v>
+        <v>392.911462660324</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476346</v>
+        <v>511.1831359408227</v>
       </c>
       <c r="P6" t="n">
-        <v>739.598998701706</v>
+        <v>586.7735145200479</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R6" t="n">
-        <v>676.9378076264277</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S6" t="n">
-        <v>676.9378076264277</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="T6" t="n">
-        <v>676.9378076264277</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="U6" t="n">
-        <v>487.5180226099429</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="V6" t="n">
-        <v>487.5180226099429</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="W6" t="n">
-        <v>487.5180226099429</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="X6" t="n">
-        <v>385.5051357559041</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="Y6" t="n">
-        <v>385.5051357559041</v>
+        <v>439.0550691137147</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230175</v>
+        <v>14.1259580354324</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170716</v>
+        <v>19.89179156510269</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396334</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828987</v>
+        <v>25.36219250254148</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828987</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="R7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="S7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="T7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="U7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="V7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="W7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="X7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.00204697330559</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="C8" t="n">
-        <v>15.00204697330559</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="D8" t="n">
-        <v>15.00204697330559</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="E8" t="n">
-        <v>15.00204697330559</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="F8" t="n">
-        <v>15.00204697330559</v>
+        <v>371.26277863231</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="H8" t="n">
         <v>15.00204697330559</v>
@@ -4817,7 +4819,7 @@
         <v>509.4952041123826</v>
       </c>
       <c r="O8" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
         <v>734.4611726020263</v>
@@ -4835,19 +4837,19 @@
         <v>750.1023486652795</v>
       </c>
       <c r="U8" t="n">
-        <v>583.2614020227597</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V8" t="n">
-        <v>583.2614020227597</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W8" t="n">
-        <v>393.841617006275</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X8" t="n">
-        <v>393.841617006275</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y8" t="n">
-        <v>204.4218319897903</v>
+        <v>560.6825636487947</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.00204697330559</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="C9" t="n">
-        <v>15.00204697330559</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="D9" t="n">
-        <v>15.00204697330559</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E9" t="n">
-        <v>15.00204697330559</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F9" t="n">
         <v>15.00204697330559</v>
@@ -4890,10 +4892,10 @@
         <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O9" t="n">
         <v>649.2101578476347</v>
@@ -4914,19 +4916,19 @@
         <v>750.1023486652795</v>
       </c>
       <c r="U9" t="n">
-        <v>560.6825636487947</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V9" t="n">
-        <v>371.26277863231</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W9" t="n">
-        <v>181.8429936158252</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X9" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652795</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>29.24882464404147</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
         <v>15.00204697330559</v>
@@ -4981,31 +4983,31 @@
         <v>67.74542702828987</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2162.93222738604</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C11" t="n">
-        <v>1793.969710445628</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D11" t="n">
-        <v>1435.704011838878</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E11" t="n">
-        <v>1049.915759240633</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>638.9298544510259</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>223.2144944699017</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>186.3894711936273</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>440.055736850883</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
-        <v>791.6529319622239</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1214.54199449445</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>1648.887652554184</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2045.692679619748</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>2349.855588952495</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>2530.096520089548</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W11" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X11" t="n">
-        <v>2549.532067450162</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y11" t="n">
-        <v>2549.532067450162</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>762.0511143195747</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>587.5980850384477</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>438.6636753771965</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>279.426220371741</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>132.8916623986259</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>50.99064134900323</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>50.99064134900323</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>112.8154098726237</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>296.6386113086636</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>590.134131986624</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>951.9864295006901</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1337.824525520585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>1668.571208589507</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>1914.691514651696</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2029.297224930789</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2029.297224930789</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2029.297224930789</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>1835.267715270074</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>1835.267715270074</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1600.115607038331</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1345.878250310129</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1138.026750104597</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>930.2664513396428</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="D13" t="n">
-        <v>493.9492916516283</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>346.0361980692352</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>346.0361980692352</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>178.0449742289177</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>50.99064134900323</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>50.99064134900323</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K13" t="n">
-        <v>116.462901117909</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>230.1506500142257</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>353.276724040951</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N13" t="n">
-        <v>481.3326611335758</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O13" t="n">
-        <v>579.2999565750212</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P13" t="n">
-        <v>644.0659310639641</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1604.920121666897</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C14" t="n">
-        <v>1235.957604726485</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>877.691906119735</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>877.691906119735</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>466.7060013301274</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>50.99064134900323</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>50.99064134900323</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>186.3894711936269</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>440.0557368508828</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>791.6529319622236</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1214.54199449445</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>1648.887652554184</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2045.692679619749</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>2349.855588952495</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>2530.096520089548</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2331.154535198091</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>1978.385879927977</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X14" t="n">
-        <v>1604.920121666897</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y14" t="n">
-        <v>1604.920121666897</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.3104100769767</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>545.8573807958497</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>396.9229711345985</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>237.685516129143</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>91.15095815602794</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>50.99064134900323</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>50.99064134900323</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>112.8154098726237</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>296.6386113086637</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>590.1341319866242</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
-        <v>951.9864295006905</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1337.824525520586</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>1668.571208589507</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>1914.691514651697</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2029.29722493079</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2007.795498077381</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2007.795498077381</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>1813.765988416666</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>1585.675510821943</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1350.5234025902</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1096.286045861999</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1096.286045861999</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>888.5257470970448</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>241.6248870901943</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="C16" t="n">
-        <v>72.68870416228742</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="D16" t="n">
-        <v>50.99064134900323</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>50.99064134900323</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>50.99064134900323</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>50.99064134900323</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>50.99064134900323</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>50.99064134900323</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K16" t="n">
-        <v>116.462901117909</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>230.1506500142258</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M16" t="n">
-        <v>353.2767240409511</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N16" t="n">
-        <v>481.3326611335759</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O16" t="n">
-        <v>579.2999565750213</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P16" t="n">
-        <v>644.0659310639642</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q16" t="n">
-        <v>644.0659310639642</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R16" t="n">
-        <v>644.0659310639642</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S16" t="n">
-        <v>644.0659310639642</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T16" t="n">
-        <v>644.0659310639642</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U16" t="n">
-        <v>644.0659310639642</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V16" t="n">
-        <v>644.0659310639642</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W16" t="n">
-        <v>644.0659310639642</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X16" t="n">
-        <v>644.0659310639642</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y16" t="n">
-        <v>423.273351920434</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.770455879627</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C17" t="n">
-        <v>552.8079389392153</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D17" t="n">
-        <v>552.8079389392153</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E17" t="n">
-        <v>552.8079389392153</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>141.8220341496078</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>141.8220341496078</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450755</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.97538618064</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943749</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>382.3382468580007</v>
+        <v>182.6877057396775</v>
       </c>
       <c r="C19" t="n">
-        <v>213.4020639300938</v>
+        <v>182.6877057396775</v>
       </c>
       <c r="D19" t="n">
-        <v>213.4020639300938</v>
+        <v>182.6877057396775</v>
       </c>
       <c r="E19" t="n">
-        <v>213.4020639300938</v>
+        <v>182.6877057396775</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>182.6877057396775</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>182.6877057396775</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962289</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W19" t="n">
-        <v>831.1203768995482</v>
+        <v>631.4698357812249</v>
       </c>
       <c r="X19" t="n">
-        <v>603.1308260015309</v>
+        <v>403.4802848832076</v>
       </c>
       <c r="Y19" t="n">
-        <v>382.3382468580007</v>
+        <v>182.6877057396775</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1811.579746109089</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C20" t="n">
-        <v>1442.617229168677</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D20" t="n">
-        <v>1084.351530561927</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E20" t="n">
-        <v>698.5632779636826</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G20" t="n">
         <v>108.5090151927147</v>
@@ -5750,13 +5752,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5777,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410102</v>
+        <v>3076.408529066615</v>
       </c>
       <c r="V20" t="n">
-        <v>2961.784676410102</v>
+        <v>2745.345641723045</v>
       </c>
       <c r="W20" t="n">
-        <v>2961.784676410102</v>
+        <v>2392.57698645293</v>
       </c>
       <c r="X20" t="n">
-        <v>2588.318918149022</v>
+        <v>2019.11122819185</v>
       </c>
       <c r="Y20" t="n">
-        <v>2198.179586173211</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5835,7 +5837,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>310.0549803959803</v>
+        <v>296.6793464139411</v>
       </c>
       <c r="C22" t="n">
-        <v>310.0549803959803</v>
+        <v>127.7431634860341</v>
       </c>
       <c r="D22" t="n">
-        <v>310.0549803959803</v>
+        <v>127.7431634860341</v>
       </c>
       <c r="E22" t="n">
-        <v>310.0549803959803</v>
+        <v>127.7431634860341</v>
       </c>
       <c r="F22" t="n">
-        <v>310.0549803959803</v>
+        <v>127.7431634860341</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
@@ -5932,28 +5934,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>831.0565485757129</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U22" t="n">
-        <v>831.0565485757129</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V22" t="n">
-        <v>576.372060369826</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W22" t="n">
-        <v>310.0549803959803</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X22" t="n">
-        <v>310.0549803959803</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y22" t="n">
-        <v>310.0549803959803</v>
+        <v>478.3278112441808</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1590.514489367197</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C23" t="n">
-        <v>1221.551972426786</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D23" t="n">
-        <v>863.2862738200351</v>
+        <v>1448.172675760994</v>
       </c>
       <c r="E23" t="n">
-        <v>477.498021221791</v>
+        <v>1062.38442316275</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218343</v>
+        <v>651.3985183731427</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218343</v>
+        <v>236.3260682181391</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V23" t="n">
-        <v>3093.488074938325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W23" t="n">
-        <v>2740.71941966821</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X23" t="n">
-        <v>2367.25366140713</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y23" t="n">
-        <v>1977.114329431319</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="24">
@@ -6057,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>551.0642295677645</v>
+        <v>2790.283754563412</v>
       </c>
       <c r="C25" t="n">
-        <v>382.1280466398576</v>
+        <v>2621.347571635505</v>
       </c>
       <c r="D25" t="n">
-        <v>382.1280466398576</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E25" t="n">
-        <v>234.2149530574645</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962289</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L25" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588484</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886959</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068856</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596443</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R25" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S25" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T25" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U25" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V25" t="n">
-        <v>732.7126943980043</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W25" t="n">
-        <v>732.7126943980043</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X25" t="n">
-        <v>732.7126943980043</v>
+        <v>3192.724798537181</v>
       </c>
       <c r="Y25" t="n">
-        <v>732.7126943980043</v>
+        <v>2971.932219393651</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1561.13247157855</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C26" t="n">
-        <v>1561.13247157855</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D26" t="n">
-        <v>1202.866772971799</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E26" t="n">
-        <v>817.078520373555</v>
+        <v>709.615767892637</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0926155839475</v>
+        <v>298.6298631030294</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6248,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>2690.640298888597</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W26" t="n">
-        <v>2337.871643618483</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X26" t="n">
-        <v>2337.871643618483</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y26" t="n">
-        <v>1947.732311642671</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6336,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6345,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C28" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D28" t="n">
-        <v>361.3151575124868</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E28" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
@@ -6412,22 +6414,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V28" t="n">
-        <v>920.8870058181849</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W28" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X28" t="n">
-        <v>901.1605589962596</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y28" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2006.793820398077</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C29" t="n">
-        <v>1976.204921733553</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
@@ -6485,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V29" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W29" t="n">
-        <v>2766.859418723278</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X29" t="n">
-        <v>2393.393660462199</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y29" t="n">
-        <v>2393.393660462199</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6573,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6582,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>692.8974549201675</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="C31" t="n">
-        <v>692.8974549201675</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2351809199101</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="E31" t="n">
-        <v>527.322087337517</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396066</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
@@ -6652,19 +6654,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V31" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W31" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X31" t="n">
-        <v>692.8974549201675</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="Y31" t="n">
-        <v>692.8974549201675</v>
+        <v>149.1100998399243</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1267.635416552713</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C32" t="n">
-        <v>1267.635416552713</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D32" t="n">
-        <v>909.3697179459625</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E32" t="n">
-        <v>523.5814653477182</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V32" t="n">
-        <v>2630.721789066532</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W32" t="n">
-        <v>2277.953133796418</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X32" t="n">
-        <v>1904.487375535338</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y32" t="n">
-        <v>1514.348043559526</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="33">
@@ -6768,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3070.921333403285</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C34" t="n">
-        <v>3070.921333403285</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D34" t="n">
-        <v>3070.921333403285</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E34" t="n">
-        <v>2923.008239820892</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F34" t="n">
-        <v>2776.118292322981</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G34" t="n">
-        <v>2617.448119005312</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.23093222317</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.23093222317</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.05368576061</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.36454002828</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950638</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249835</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279683</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497872</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250631</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.605821609171</v>
+        <v>3304.435457340373</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.605821609171</v>
+        <v>3015.332590466016</v>
       </c>
       <c r="V34" t="n">
-        <v>3070.921333403285</v>
+        <v>2760.64810226013</v>
       </c>
       <c r="W34" t="n">
-        <v>3070.921333403285</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="X34" t="n">
-        <v>3070.921333403285</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="Y34" t="n">
-        <v>3070.921333403285</v>
+        <v>2471.230932223169</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2268.308520734407</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C35" t="n">
-        <v>1976.204921733553</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>709.615767892637</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030294</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6950,13 +6952,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6971,16 +6973,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>2994.542934265601</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W35" t="n">
-        <v>2641.774278995486</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.308520734407</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y35" t="n">
-        <v>2268.308520734407</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C36" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D36" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E36" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F36" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G36" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H36" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I36" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>920.7416649986312</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K36" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L36" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M36" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N36" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R36" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S36" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T36" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U36" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V36" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W36" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X36" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2785.150955630594</v>
+        <v>2623.050455131167</v>
       </c>
       <c r="C37" t="n">
-        <v>2785.150955630594</v>
+        <v>2623.050455131167</v>
       </c>
       <c r="D37" t="n">
-        <v>2785.150955630594</v>
+        <v>2623.050455131167</v>
       </c>
       <c r="E37" t="n">
-        <v>2785.150955630594</v>
+        <v>2623.050455131167</v>
       </c>
       <c r="F37" t="n">
-        <v>2785.150955630594</v>
+        <v>2623.050455131167</v>
       </c>
       <c r="G37" t="n">
-        <v>2617.448119005312</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H37" t="n">
         <v>2471.23093222317</v>
@@ -7093,52 +7095,52 @@
         <v>2471.23093222317</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.05368576061</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K37" t="n">
         <v>2581.36454002828</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950638</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M37" t="n">
         <v>2904.506865249835</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279683</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O37" t="n">
         <v>3213.734051497872</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.685054250631</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q37" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366699</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193526</v>
+        <v>3133.919937435997</v>
       </c>
       <c r="T37" t="n">
-        <v>2822.322864763052</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="U37" t="n">
-        <v>2785.150955630594</v>
+        <v>2623.050455131167</v>
       </c>
       <c r="V37" t="n">
-        <v>2785.150955630594</v>
+        <v>2623.050455131167</v>
       </c>
       <c r="W37" t="n">
-        <v>2785.150955630594</v>
+        <v>2623.050455131167</v>
       </c>
       <c r="X37" t="n">
-        <v>2785.150955630594</v>
+        <v>2623.050455131167</v>
       </c>
       <c r="Y37" t="n">
-        <v>2785.150955630594</v>
+        <v>2623.050455131167</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796265</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C38" t="n">
-        <v>921.7704558796265</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D38" t="n">
-        <v>921.7704558796265</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E38" t="n">
-        <v>921.7704558796265</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450754</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.97538618064</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.50962791956</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943748</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="39">
@@ -7242,22 +7244,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3104.813242465641</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C40" t="n">
-        <v>3104.813242465641</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D40" t="n">
-        <v>3031.06248711041</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>2883.149393528016</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>2736.259446030106</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>2568.556609404825</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>2568.556609404825</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>3325.605821609171</v>
+        <v>831.406353818561</v>
       </c>
       <c r="V40" t="n">
-        <v>3325.605821609171</v>
+        <v>576.7218656126742</v>
       </c>
       <c r="W40" t="n">
-        <v>3325.605821609171</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X40" t="n">
-        <v>3325.605821609171</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y40" t="n">
-        <v>3104.813242465641</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>835.0256084444185</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C41" t="n">
-        <v>466.0630915040068</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D41" t="n">
-        <v>466.0630915040068</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E41" t="n">
-        <v>466.0630915040068</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F41" t="n">
-        <v>466.0630915040068</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G41" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>50.99064134900323</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>61.42322867772793</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>512.4574419261368</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1045.989346598061</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>1592.768163656844</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2095.740634536181</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>2490.515000893359</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>2490.515000893359</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>2549.532067450161</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>2549.532067450161</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>2549.532067450161</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>2549.532067450161</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>2337.999194015546</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W41" t="n">
-        <v>1985.230538745432</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X41" t="n">
-        <v>1611.764780484352</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y41" t="n">
-        <v>1221.62544850854</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>926.0223793979284</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>751.5693501168014</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>602.6349404555501</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>443.3974854500947</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>296.8629274769796</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>160.4998273095977</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>69.99793294746527</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>144.6679108396206</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>382.9321098199678</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>749.6302701326332</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
-        <v>1196.906595354949</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.429638909404</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2081.390918327459</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2391.890509803562</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2549.532067450161</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2549.387714042676</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2419.949827536156</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2227.306827214012</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>1999.238980348427</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
-        <v>1764.086872116685</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1509.849515388483</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1301.99801518295</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1094.237716417996</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.99064134900323</v>
+        <v>189.2249443698244</v>
       </c>
       <c r="C43" t="n">
-        <v>50.99064134900323</v>
+        <v>189.2249443698244</v>
       </c>
       <c r="D43" t="n">
-        <v>50.99064134900323</v>
+        <v>189.2249443698244</v>
       </c>
       <c r="E43" t="n">
-        <v>50.99064134900323</v>
+        <v>189.2249443698244</v>
       </c>
       <c r="F43" t="n">
-        <v>50.99064134900323</v>
+        <v>189.2249443698244</v>
       </c>
       <c r="G43" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>62.81339488644269</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K43" t="n">
-        <v>161.1242491541131</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L43" t="n">
-        <v>316.8340930764704</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>484.2665743756681</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>655.5754114055156</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>793.4937606237054</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>892.444763376464</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>905.3655307350048</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>905.3655307350048</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>905.3655307350048</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>905.3655307350048</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U43" t="n">
-        <v>616.2626638606483</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V43" t="n">
-        <v>361.5781756547615</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W43" t="n">
-        <v>72.16100561780087</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="X43" t="n">
-        <v>50.99064134900323</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.99064134900323</v>
+        <v>189.2249443698244</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1193.291307051169</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C44" t="n">
-        <v>824.3287901107573</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D44" t="n">
-        <v>466.0630915040068</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E44" t="n">
-        <v>466.0630915040068</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F44" t="n">
-        <v>466.0630915040068</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G44" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>239.8697723080287</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>264.171080170455</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>264.171080170455</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>797.7029848423795</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>1344.481801901162</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>1847.454272780499</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>2242.228639137677</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>2490.515000893359</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>2196.763412180047</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X44" t="n">
-        <v>1823.297653918968</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y44" t="n">
-        <v>1579.891147115291</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>926.0223793979292</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>751.5693501168022</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>602.6349404555509</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>443.3974854500954</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>296.8629274769804</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>160.4998273095985</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>69.99793294746527</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>144.6679108396208</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>382.9321098199679</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>749.6302701326333</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
-        <v>1196.906595354949</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.429638909404</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2081.390918327459</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2391.890509803562</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2549.532067450162</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2549.387714042677</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2419.949827536157</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2227.306827214013</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>1999.238980348428</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1764.086872116686</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1509.849515388484</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1301.998015182951</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1094.237716417997</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>62.81339488644269</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
-        <v>161.1242491541131</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>316.8340930764704</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>484.2665743756681</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>655.5754114055156</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>793.4937606237054</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>892.444763376464</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>905.3655307350048</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>905.3655307350048</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>905.3655307350048</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>905.3655307350048</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U46" t="n">
-        <v>616.2626638606483</v>
+        <v>792.2622395052706</v>
       </c>
       <c r="V46" t="n">
-        <v>616.2626638606483</v>
+        <v>537.5777512993837</v>
       </c>
       <c r="W46" t="n">
-        <v>326.8454938236877</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X46" t="n">
-        <v>98.85594292567038</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y46" t="n">
-        <v>98.85594292567038</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
   </sheetData>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>235.8877205747719</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22559,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>94.36637323394321</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988685</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>134.3286684293327</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V2" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>222.8849795897604</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>239.391817567345</v>
       </c>
     </row>
     <row r="3">
@@ -22623,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>19.68706256115871</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>61.59970664354543</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>77.29308816345809</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>21.88218769163137</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>48.87899782081595</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>79.02279728521563</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22689,7 +22691,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>119.9796620153909</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>37.06597233494213</v>
+        <v>61.70981873818782</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.3148989349955578</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22741,25 +22743,25 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7.935701265474393</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>74.1813952927055</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22787,7 +22789,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>207.8369205319743</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22796,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>171.5460391182791</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>86.27197698880639</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V5" t="n">
-        <v>140.226671303815</v>
+        <v>204.7349591825292</v>
       </c>
       <c r="W5" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>252.8905085427716</v>
+        <v>222.8849795897604</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22866,7 +22868,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.598944475930125</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22875,16 +22877,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>5.123096665782924</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>61.59970664354543</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>77.29308816345809</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>4.37813005785722</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920013</v>
+        <v>195.7251189095246</v>
       </c>
       <c r="U6" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22926,7 +22928,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>104.7802272179791</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825418</v>
+        <v>61.70981873818782</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402852</v>
+        <v>21.7289579877603</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709386</v>
+        <v>12.56652187753493</v>
       </c>
       <c r="Q7" t="n">
-        <v>16.47009429716282</v>
+        <v>74.1813952927055</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23030,13 +23032,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G8" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H8" t="n">
-        <v>316.8938261062223</v>
+        <v>151.7212889301279</v>
       </c>
       <c r="I8" t="n">
         <v>125.4713171199747</v>
@@ -23075,13 +23077,13 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>85.99672338893581</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23097,19 +23099,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>61.65174237655248</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>136.1637893657753</v>
@@ -23154,16 +23156,16 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>40.60044802738304</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23200,10 +23202,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>18.95836326784826</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,7 +23223,7 @@
         <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159726</v>
+        <v>16.47009429716282</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>130.6245080518219</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>66.11485303372851</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.6915663742737</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>206.704164525825</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0460904171307</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>126.4919521192237</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23349,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>54.25800553866227</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>92.88584454571125</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>30.54219944928975</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21.2867095848742</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>134.4690227430407</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.809572818776</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23419,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.772586778758495</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>21.5096096299569</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>104.9382845759052</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>8.242911051707722</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.85573157916966</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.7694211601826</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>194.7445699524669</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7688271957736</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2274111152248</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>301.1261226415114</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>66.11485303372848</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.6915663742737</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>206.704164525825</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0460904171307</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>111.5585015405851</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>168.0688818921495</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23586,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>95.5813027388343</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>92.88584454571124</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>30.54219944928974</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>134.4690227430407</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23637,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23650,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>127.134390833061</v>
+        <v>1.772586778757926</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3113116019144</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2933991810722</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>104.9382845759051</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>8.242911051707694</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.85573157916963</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.7694211601826</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>194.7445699524668</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7688271957736</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2274111152248</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23735,22 +23737,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>220.0509458470704</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>84.51310991088954</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>29.7411814999017</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>197.6540357071406</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23978,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>233.6440512519067</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>208.2078224813919</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>105.407071675716</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>22.8690891624837</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>168.0688818921502</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24263,10 +24265,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>97.95568926599657</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24367,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24421,16 +24423,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>65.84507501784907</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>94.15744254776834</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>181.1251564493159</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>263.2372948634661</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24601,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24652,22 +24654,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>206.1804730353311</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>334.9898820931292</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,7 +24733,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24841,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>131.1298217579575</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>62.98301134065734</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24892,10 +24894,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>138.4883409267356</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24926,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25081,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>8.942336674536193</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25126,16 +25128,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>198.59028865006</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>76.09032876016272</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>181.1251564493159</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25211,7 +25213,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25324,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>15.72448058011122</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>249.4116481644794</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25391,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>12.66894511512226</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>97.95568926599702</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>75.60222521653284</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>197.6259927259852</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25685,7 +25687,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>118.3347137698657</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>44.54010860076366</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25837,22 +25839,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>204.7509947629275</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25871,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2654969204135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.4453316210368</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26077,16 +26079,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>158.8733195558276</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433263.0758337677</v>
+        <v>402256.5418769753</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433263.0758337677</v>
+        <v>402256.5418769753</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>732074.4812007229</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>732074.4812007229</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>777591.6108183695</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>777591.6108183695</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149975.6800963041</v>
+        <v>139242.6491112605</v>
       </c>
       <c r="C2" t="n">
-        <v>149975.680096304</v>
+        <v>139242.6491112606</v>
       </c>
       <c r="D2" t="n">
         <v>149975.680096304</v>
       </c>
       <c r="E2" t="n">
-        <v>253410.3973387115</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="F2" t="n">
-        <v>253410.3973387115</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="G2" t="n">
         <v>296136.8796318747</v>
@@ -26332,28 +26334,28 @@
         <v>296136.8796318746</v>
       </c>
       <c r="I2" t="n">
-        <v>296136.8796318747</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="J2" t="n">
+        <v>296136.8796318745</v>
+      </c>
+      <c r="K2" t="n">
+        <v>296136.8796318744</v>
+      </c>
+      <c r="L2" t="n">
         <v>296136.8796318746</v>
       </c>
-      <c r="K2" t="n">
-        <v>296136.8796318747</v>
-      </c>
-      <c r="L2" t="n">
-        <v>296136.8796318747</v>
-      </c>
       <c r="M2" t="n">
-        <v>296136.8796318747</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="N2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="O2" t="n">
-        <v>269166.3268217432</v>
+        <v>296136.8796318747</v>
       </c>
       <c r="P2" t="n">
-        <v>269166.3268217432</v>
+        <v>296136.8796318746</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>542655.4349751304</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>43803.80384074452</v>
       </c>
       <c r="E3" t="n">
-        <v>442006.5628979789</v>
+        <v>627134.6436336677</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>176272.847277912</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>38421.40650613414</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>10295.60674904871</v>
       </c>
       <c r="M3" t="n">
-        <v>112106.270910017</v>
+        <v>160456.4418678775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.800118072334</v>
+        <v>107.1921479602628</v>
       </c>
       <c r="C4" t="n">
-        <v>137.800118072334</v>
+        <v>107.1921479602628</v>
       </c>
       <c r="D4" t="n">
         <v>137.800118072334</v>
       </c>
       <c r="E4" t="n">
-        <v>449.9968236586044</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>449.9968236586045</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>492.9197747418262</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>492.9197747418262</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161357</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="D5" t="n">
         <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>59058.54363117637</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>59058.54363117638</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>74306.34056139331</v>
@@ -26488,16 +26490,16 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="K5" t="n">
-        <v>74306.3405613933</v>
-      </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26506,10 +26508,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>62510.01949817635</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>62510.01949817636</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-498504.8229542272</v>
+        <v>-457239.097790851</v>
       </c>
       <c r="C6" t="n">
-        <v>92852.07956661811</v>
+        <v>85416.3371842794</v>
       </c>
       <c r="D6" t="n">
-        <v>92852.07956661808</v>
+        <v>49048.27572587359</v>
       </c>
       <c r="E6" t="n">
-        <v>-248104.7060141024</v>
+        <v>-405888.7515521926</v>
       </c>
       <c r="F6" t="n">
-        <v>193901.8568838765</v>
+        <v>221245.892081475</v>
       </c>
       <c r="G6" t="n">
-        <v>44973.04480356321</v>
+        <v>221245.8920814753</v>
       </c>
       <c r="H6" t="n">
+        <v>221245.8920814753</v>
+      </c>
+      <c r="I6" t="n">
         <v>221245.8920814751</v>
       </c>
-      <c r="I6" t="n">
-        <v>221245.8920814753</v>
-      </c>
       <c r="J6" t="n">
-        <v>172180.9473529306</v>
+        <v>182824.485575341</v>
       </c>
       <c r="K6" t="n">
+        <v>221245.892081475</v>
+      </c>
+      <c r="L6" t="n">
+        <v>210950.2853324264</v>
+      </c>
+      <c r="M6" t="n">
+        <v>60789.45021359751</v>
+      </c>
+      <c r="N6" t="n">
+        <v>221245.8920814751</v>
+      </c>
+      <c r="O6" t="n">
         <v>221245.8920814752</v>
       </c>
-      <c r="L6" t="n">
-        <v>221245.8920814753</v>
-      </c>
-      <c r="M6" t="n">
-        <v>109139.6211714583</v>
-      </c>
-      <c r="N6" t="n">
-        <v>221245.8920814752</v>
-      </c>
-      <c r="O6" t="n">
-        <v>206163.3875488251</v>
-      </c>
       <c r="P6" t="n">
-        <v>206163.3875488251</v>
+        <v>221245.8920814751</v>
       </c>
     </row>
   </sheetData>
@@ -26735,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="D3" t="n">
         <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
-        <v>931.4521195382529</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>931.4521195382531</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="D4" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
-        <v>637.3830168625404</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>637.3830168625404</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="O4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="O4" t="n">
-        <v>637.3830168625403</v>
-      </c>
-      <c r="P4" t="n">
-        <v>637.3830168625404</v>
       </c>
     </row>
   </sheetData>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>36.39307775568375</v>
       </c>
       <c r="E3" t="n">
-        <v>382.9821786253483</v>
+        <v>541.3067596803937</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>158.3245810550452</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>40.67946607761124</v>
       </c>
       <c r="E4" t="n">
-        <v>449.8574296962206</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>194.0184385397525</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>146.8461210887089</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.67946607761124</v>
       </c>
       <c r="M4" t="n">
-        <v>449.8574296962206</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.67946607761124</v>
       </c>
       <c r="M4" t="n">
-        <v>449.8574296962206</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>194.0184385397525</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>177.8597534986736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>238.7894450985626</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>210.3283251711234</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>140.5989153332807</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077002</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954485</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043118</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528639</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672893</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470274</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470024</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O5" t="n">
-        <v>371.501566862268</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619223</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924579</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621737</v>
+        <v>138.4613654251943</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829654</v>
+        <v>278.1878331720419</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292672</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>210.3283251711234</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936715</v>
+        <v>140.5989153332807</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550075</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820369</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620016</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639162</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114193</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682166</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784858</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R7" t="n">
-        <v>44.4710217664791</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147603</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.744531133822119</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>38.34867947425579</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>144.3610365366774</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>317.8123993192354</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>476.3184022139258</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>590.9150969006346</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>657.5069024517437</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>668.1460515357159</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>630.9113700737721</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>538.4682577075384</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>404.3672364775337</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>235.2174038349539</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>85.32850321197162</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>16.39168503830633</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2995624907057695</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.003500785421902</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>19.34959969078522</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>68.98018055071024</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2868878016369</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>323.5214404249043</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>435.0145016768039</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>507.6414051483478</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>521.0771626084799</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>476.6838030999208</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>382.5807771741175</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>255.7451178022766</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>124.3927943790898</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>37.21414836079715</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>8.075514130713717</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1318092621988094</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.67966775654439</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>14.93377332636741</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>50.51219035135313</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>118.7525103876884</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>195.1468538967028</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>249.7207862775178</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>263.295555691772</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>257.0349758719249</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>237.4134025341108</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>203.1481803006051</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>140.6492700502762</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>75.52397021698684</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>29.27202808450541</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>7.176762232507848</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09161824126605776</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.74453113382212</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>38.3486794742558</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>144.3610365366774</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>317.8123993192355</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>476.3184022139259</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>590.9150969006347</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>657.5069024517438</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>668.146051535716</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>630.9113700737722</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>538.4682577075386</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>404.3672364775338</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>235.217403834954</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>85.32850321197165</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>16.39168503830634</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2995624907057696</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.003500785421903</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>19.34959969078522</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>68.98018055071026</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2868878016369</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>323.5214404249044</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>435.014501676804</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>507.6414051483479</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>521.07716260848</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>476.6838030999209</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>382.5807771741176</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>255.7451178022766</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>124.3927943790898</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>37.21414836079716</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>8.075514130713719</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1318092621988095</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.679667756544391</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>14.93377332636741</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>50.51219035135315</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
-        <v>118.7525103876884</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>195.1468538967028</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>249.7207862775179</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>263.2955556917721</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>257.034975871925</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>237.4134025341109</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>203.1481803006051</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>140.6492700502762</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>75.52397021698685</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>29.27202808450541</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>7.17676223250785</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09161824126605778</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33974,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34129,10 +34131,10 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>181.0459045266863</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>230.6278180436924</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
         <v>691.3565293623194</v>
@@ -34150,7 +34152,7 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>222.3056898744495</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
         <v>275.1987363563569</v>
@@ -34369,10 +34371,10 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>244.6366266635929</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
         <v>769.2673490574995</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781471</v>
+        <v>40.0183145243146</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>107.4477330152293</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>76.35391775679318</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>0.6171412472592124</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>13.6224856581357</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788333</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L5" t="n">
-        <v>112.184017997302</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197546</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504115</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405812</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P5" t="n">
-        <v>85.8349965691599</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065975</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781469</v>
+        <v>0.6199264508352701</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996321</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848227</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855694</v>
+        <v>76.35391775679318</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764996</v>
+        <v>0.6171412472592124</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646077</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061152</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520826</v>
+        <v>13.6224856581357</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400524</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>136.7664947925491</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>256.2285511689452</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>355.1486819306473</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>427.160669224471</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>438.7329879391249</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>400.8131586520853</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>307.2352619522689</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>182.0615466030842</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>19.63186602082178</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.44926113497019</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>185.6800014505453</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>296.4601218969297</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>365.5073712263294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>389.7354505251466</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>334.0875586554764</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>248.6063697597873</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>115.763343716255</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K13" t="n">
-        <v>66.13359572616739</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L13" t="n">
-        <v>114.8361099962796</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M13" t="n">
-        <v>124.3697717441669</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>129.3494314066917</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O13" t="n">
-        <v>98.95686408226803</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>65.42017625145746</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>136.7664947925492</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>256.2285511689453</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>355.1486819306475</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>427.1606692244711</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>438.7329879391251</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>400.8131586520855</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>307.235261952269</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>182.0615466030843</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>19.63186602082183</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.44926113497021</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>185.6800014505454</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>296.4601218969298</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>365.5073712263296</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>389.7354505251467</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>334.0875586554765</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>248.6063697597874</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>115.7633437162551</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K16" t="n">
-        <v>66.13359572616741</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L16" t="n">
-        <v>114.8361099962796</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M16" t="n">
-        <v>124.369771744167</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>129.3494314066918</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O16" t="n">
-        <v>98.95686408226808</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P16" t="n">
-        <v>65.42017625145752</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M19" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>10.53796699871183</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37798,7 +37800,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -38017,10 +38019,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>24.54677561861241</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
